--- a/093-siskiyou-county/final/results.xlsx
+++ b/093-siskiyou-county/final/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26780" yWindow="100" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="18940" yWindow="600" windowWidth="26640" windowHeight="18140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -524,11 +526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7048,6 +7052,132 @@
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D46" s="1">
+        <v>376</v>
+      </c>
+      <c r="E46" s="1">
+        <v>354</v>
+      </c>
+      <c r="F46" s="1">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>30</v>
+      </c>
+      <c r="J46" s="1">
+        <v>328</v>
+      </c>
+      <c r="K46" s="1">
+        <v>309</v>
+      </c>
+      <c r="L46" s="1">
+        <v>384</v>
+      </c>
+      <c r="M46" s="1">
+        <v>392</v>
+      </c>
+      <c r="N46" s="1">
+        <v>475</v>
+      </c>
+      <c r="O46" s="1">
+        <v>298</v>
+      </c>
+      <c r="P46" s="1">
+        <v>423</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>328</v>
+      </c>
+      <c r="R46" s="1">
+        <v>453</v>
+      </c>
+      <c r="S46" s="1">
+        <v>295</v>
+      </c>
+      <c r="T46" s="1">
+        <v>492</v>
+      </c>
+      <c r="U46" s="1">
+        <v>290</v>
+      </c>
+      <c r="V46" s="1">
+        <v>384</v>
+      </c>
+      <c r="W46" s="1">
+        <v>412</v>
+      </c>
+      <c r="X46" s="1">
+        <v>481</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>288</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>544</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>222</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>347</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>392</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>351</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>400</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>326</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>437</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>280</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>495</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>308</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>478</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>488</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>310</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>286</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>476</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>364</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>373</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>328</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>449</v>
+      </c>
     </row>
     <row r="47" spans="1:45">
       <c r="A47" t="str">
